--- a/Data/TaiwanRailwayFares.xlsx
+++ b/Data/TaiwanRailwayFares.xlsx
@@ -440,17 +440,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>區間票價(元台幣)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>莒光票價(元台幣)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>普悠瑪/太魯閣/自強票價(元台幣)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>莒光票價(元台幣)</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>區間票價(元台幣)</t>
         </is>
       </c>
     </row>
